--- a/data/trans_dic/P25A_7_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_7_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente)</t>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,07%</t>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,68</t>
+          <t>8,72; 14,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,19</t>
+          <t>5,91; 10,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,91</t>
+          <t>8,49; 13,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,2; 68,86</t>
+          <t>12,89; 18,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 25,16</t>
+          <t>11,89; 17,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 21,76</t>
+          <t>8,27; 13,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 20,87</t>
+          <t>18,88; 25,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,33; 71,48</t>
+          <t>16,38; 22,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,91</t>
+          <t>16,18; 21,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,32</t>
+          <t>22,5; 28,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 16,73</t>
+          <t>24,29; 30,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,86; 68,74</t>
+          <t>18,17; 25,02</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,86; 19,22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 15,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13,14; 17,06</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>18,58; 22,76</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 22,94</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 19,41</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>26,62%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>12,05%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>16,46%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>68,03%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>19,09%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,36</t>
+          <t>4,87; 9,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 10,58</t>
+          <t>6,04; 11,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 14,55</t>
+          <t>8,47; 14,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,13; 76,36</t>
+          <t>11,97; 22,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,98; 19,74</t>
+          <t>10,73; 19,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,16; 19,25</t>
+          <t>11,04; 19,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,35; 26,06</t>
+          <t>13,66; 21,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,59; 79,81</t>
+          <t>12,86; 19,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,62</t>
+          <t>18,71; 26,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 14,22</t>
+          <t>20,48; 33,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 19,19</t>
+          <t>20,9; 32,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,73; 75,0</t>
+          <t>19,57; 29,13</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 14,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 14,36</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 19,29</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 25,76</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>16,91; 23,87</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>16,3; 22,66</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,58%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,15%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,77%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>23,98%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,13%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,1</t>
+          <t>4,61; 16,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 16,22</t>
+          <t>6,77; 17,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 26,68</t>
+          <t>8,33; 27,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,9; 35,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 26,28</t>
+          <t>10,04; 38,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 30,55</t>
+          <t>16,22; 31,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>13,81; 26,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 30,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>12,29; 22,69</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,87; 18,82</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,82; 24,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>17,01; 33,64</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>12,12; 21,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 19,5</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 26,97</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 32,75</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 10,95</t>
+          <t>7,62; 11,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 10,0</t>
+          <t>6,9; 10,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 13,63</t>
+          <t>9,63; 14,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,02; 68,77</t>
+          <t>13,46; 18,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,01; 22,5</t>
+          <t>12,49; 17,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 19,77</t>
+          <t>11,11; 16,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,32</t>
+          <t>17,85; 22,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,5; 71,73</t>
+          <t>15,97; 19,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,07; 16,12</t>
+          <t>18,45; 22,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 14,48</t>
+          <t>22,8; 28,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 17,52</t>
+          <t>24,25; 29,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,04; 68,59</t>
+          <t>20,06; 25,64</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,49; 16,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 14,37</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 17,65</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 22,53</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>18,93; 22,55</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 20,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>185352</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>126138</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>179549</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35608</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33178</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>178228</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>395265</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>345716</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>336708</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>60250</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>63880</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>386754</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>580617</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>471854</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>516258</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>95859</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>97057</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>564982</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>143759; 241479</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97300; 167625</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>139691; 230245</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29580; 42279</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27157; 39510</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>135629; 224603</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>339900; 452441</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>299373; 405112</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>293354; 391764</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53314; 68352</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57340; 72098</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>328259; 451936</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>512445; 662692</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>413896; 538799</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>454382; 589966</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>86644; 106163</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>87206; 106576</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>495875; 668857</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>95140</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>114552</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>154592</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12092</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10849</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>196417</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>237515</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>216381</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>302815</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17396</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17497</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>333739</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>332655</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>330933</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>457407</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>29489</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>28346</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>530156</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>66898; 132768</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>82989; 151816</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>117065; 206278</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8651; 16024</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7864; 14279</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>152628; 265387</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>189731; 293205</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>176537; 263932</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>257816; 361017</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13386; 21651</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13987; 21901</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>272886; 406241</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>270539; 402139</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>283636; 394292</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>393765; 532436</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>24138; 35456</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>23711; 33460</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>452527; 629381</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37978</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47182</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60912</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>81328</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96202</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>78780</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>96518</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98754</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>134179</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>125963</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>157430</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>180081</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19166; 69745</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28625; 72218</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34728; 115217</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42430; 164476</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66421; 127264</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56549; 109839</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>72729; 126607</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70072; 138548</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>100062; 174395</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>96998; 162287</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>117319; 222823</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>132358; 273351</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>379.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>496.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>439.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>318470</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>287872</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>395054</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47701</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44027</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>455973</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>728982</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>640877</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>736041</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77647</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>81377</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>819247</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1047452</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>928749</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1131094</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>125347</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>125404</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1275220</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>261921; 391602</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>237611; 346639</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>331702; 494510</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>40609; 54633</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37690; 51303</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>382640; 577498</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>642361; 816926</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>576370; 709901</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>664455; 817687</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>68917; 86204</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73465; 90009</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>724883; 926228</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>949606; 1156955</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>846068; 1013567</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1027337; 1242953</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>113234; 136083</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>114462; 136378</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1149884; 1423464</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
